--- a/Basics_Api_Fastify/Data.xlsx
+++ b/Basics_Api_Fastify/Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t xml:space="preserve">category_id</t>
   </si>
@@ -58,13 +58,13 @@
     <t xml:space="preserve">Plywood</t>
   </si>
   <si>
-    <t xml:space="preserve">ebo_size</t>
+    <t xml:space="preserve">PACK_OF</t>
   </si>
   <si>
-    <t xml:space="preserve">ebo_tester1</t>
+    <t xml:space="preserve">COLOR</t>
   </si>
   <si>
-    <t xml:space="preserve">color</t>
+    <t xml:space="preserve">SIZE</t>
   </si>
 </sst>
 </file>
@@ -261,7 +261,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -323,7 +323,9 @@
       <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -345,10 +347,10 @@
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -368,12 +370,14 @@
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2"/>
